--- a/ax/cmd/table/xlsxsheet/template.xlsx
+++ b/ax/cmd/table/xlsxsheet/template.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="#规则" sheetId="3" r:id="rId1"/>
-    <sheet name="有索引" sheetId="1" r:id="rId2"/>
-    <sheet name="无索引" sheetId="2" r:id="rId3"/>
+    <sheet name="有索引配置表" sheetId="1" r:id="rId1"/>
+    <sheet name="无索引配置表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,220 +27,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yuanqi</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该表的索引数量，前 N 个字段将会为索引字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该行数据及之后的数据均不会被导出：
+当数据行的索引字段为空时，将会引发断层，数据将截止</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
-  <si>
-    <t>配置表说明
-- 配置表分为“有索引配置表”和“无索引配置表”
-    - 有索引配置表：用于需要唯一索引的数据，支持多级索引，例如：
-        - 书籍配置，每本书有所属的分类和不同的编号，那么数据可以看作：类型索引：1，编号索引：1，书本名字、书本描述...
-        - 等级配置，每个等级对应的属性不同，那么数据可以看作：等级索引：1，生命值、体力值、下一级经验值
-    - 无索引配置表：一般用于全局配置，无需索引的配置信息，例如：
-        - 新玩家配置：初始化资源、出生点位置
-    - 模板可以参考 Sheet “有索引”和“无索引”
-- 配置名称：不同的配置名称将会生成不同的配置文件，如果存在相同名称的配置文件将仅保留一份，其他的会被忽略
-- 索引数量：为 0 需要使用无索引模板，反之使用有索引模板。有索引模板的索引数量对应前 N 个字段
-- 字段类型：指定字段的数据类型，影响生成的配置文件
-- 导出参数：包含s时将导出服务端配置，包含c时将导出客户端配置，同时包含sc时将导出客户端和服务端配置
-字段遵循 JSON 规范</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+  <si>
+    <t>配置名称</t>
+  </si>
+  <si>
+    <t>IndexConfig</t>
+  </si>
+  <si>
+    <t>#：该标识是用于忽略内容的，当表名或配置名、字段描述、字段名称、字段类型、导出参数、数据描述前缀为该字符，将忽略该数据</t>
+  </si>
+  <si>
+    <t>索引数量</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
+  <si>
+    <t>任务ID</t>
+  </si>
+  <si>
+    <t>次要</t>
+  </si>
+  <si>
+    <t># 将忽略该字段</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>信息2</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>字段类型</t>
   </si>
   <si>
-    <t>字段说明</t>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>整数（推荐使用）</t>
-  </si>
-  <si>
-    <t>int8</t>
-  </si>
-  <si>
-    <t>整数（-128~127）</t>
-  </si>
-  <si>
-    <t>int16</t>
-  </si>
-  <si>
-    <t>整数（-32768~32767）</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>整数（-2147483648~2147483647）</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>整数（-9223372036854775808~9223372036854775807）</t>
-  </si>
-  <si>
-    <t>uint</t>
-  </si>
-  <si>
-    <t>无符号整数（不支持负数）</t>
-  </si>
-  <si>
-    <t>uint8</t>
-  </si>
-  <si>
-    <t>uint16</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>float32</t>
-  </si>
-  <si>
-    <t>浮点数（小数）</t>
-  </si>
-  <si>
-    <t>float64</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>整数（uint8）</t>
-  </si>
-  <si>
-    <t>rune</t>
-  </si>
-  <si>
-    <t>整数（int32）</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>true 或 false</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>配置名称</t>
-  </si>
-  <si>
-    <t>IndexConfig</t>
-  </si>
-  <si>
-    <t>索引数量</t>
-  </si>
-  <si>
-    <t>字段描述</t>
-  </si>
-  <si>
-    <t>任务ID</t>
-  </si>
-  <si>
-    <t>次数</t>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>{id:int,name:string,info:{lv:int,exp:{mux:int,count:int}}}</t>
+  </si>
+  <si>
+    <t>[]{id:int,name:string}</t>
+  </si>
+  <si>
+    <t>导出参数</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>["asd","12"]</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"小明","info":{"lv":1,"exp":{"mux":10,"count":100}}}</t>
+  </si>
+  <si>
+    <t>[{"id": 1, "name":"张飞"}, {"id": 2, "name":"刘备"}]</t>
+  </si>
+  <si>
+    <t># 开头将忽略该行</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>悬停查看</t>
+  </si>
+  <si>
+    <t>EasyConfig</t>
+  </si>
+  <si>
+    <t>字段值</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>#次数</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>奖励</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>信息2</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>[]string</t>
-  </si>
-  <si>
-    <t>{id:int,name:string,info:{lv:int,exp:{mux:int,count:int}}}</t>
-  </si>
-  <si>
-    <t>[]{id:int,name:string}</t>
-  </si>
-  <si>
-    <t>导出参数</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>["asd","12"]</t>
-  </si>
-  <si>
-    <t>{"id":1,"name":"小明","info":{"lv":1,"exp":{"mux":10,"count":100}}}</t>
-  </si>
-  <si>
-    <t>[{"id": 1, "name":"张飞"}, {"id": 2, "name":"刘备"}]</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>EasyConfig</t>
-  </si>
-  <si>
-    <t>字段值</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>#次数</t>
   </si>
 </sst>
 </file>
@@ -254,7 +195,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,9 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,6 +375,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -777,137 +729,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +887,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -947,11 +905,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,148 +970,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7600950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6991350" y="2905125"/>
-          <a:ext cx="7010400" cy="3676650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>其他说明：</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、字段描述列开头为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> “#” </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>时，本行将被忽略；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Sheet </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的名称或者配置名称开头为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>“#”</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，该配置将被忽略；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、非配置内容区域外的单元格均可以用来做数值计算、备注等；</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、配置行中如果发生空行将忽略后方的所有数据，如果要跳过某一行请使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>“#”</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,425 +1259,236 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="119.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="74.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="219" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" ht="12" customHeight="1" spans="1:8">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="F7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="D8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="D11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="12.625" style="2"/>
-    <col min="5" max="5" width="74.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="6:6">
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1873,22 +1497,22 @@
     <col min="3" max="3" width="64.875" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="74.625" customWidth="1"/>
-    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1904,158 +1528,158 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ax/cmd/table/xlsxsheet/template.xlsx
+++ b/ax/cmd/table/xlsxsheet/template.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="有索引配置表" sheetId="1" r:id="rId1"/>
     <sheet name="无索引配置表" sheetId="2" r:id="rId2"/>
+    <sheet name="Lua 配置表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>配置名称</t>
   </si>
@@ -183,6 +184,34 @@
   </si>
   <si>
     <t>奖励</t>
+  </si>
+  <si>
+    <t>LuaConfig</t>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>{"asd", "12"}</t>
+  </si>
+  <si>
+    <t>{
+    id = 1,
+    name = "小明",
+    info = {
+        lv = 1,
+        exp = {
+            mux = 10,
+            count = 100
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    {id = 1, name = "张飞"},
+    {id = 2, name = "刘备"}
+}</t>
   </si>
 </sst>
 </file>
@@ -882,6 +911,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -907,9 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1261,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1276,7 +1305,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1288,10 +1317,10 @@
       <c r="E1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="E2"/>
@@ -1310,7 +1339,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1321,62 +1350,62 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1387,18 +1416,18 @@
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
@@ -1407,13 +1436,13 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1424,13 +1453,13 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1441,18 +1470,18 @@
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2">
@@ -1461,13 +1490,13 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1488,7 +1517,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1625,7 +1654,7 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
@@ -1645,7 +1674,7 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1680,6 +1709,158 @@
       </c>
       <c r="E16" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="64.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="148.5" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
